--- a/Data/EC/NIT-9008297144.xlsx
+++ b/Data/EC/NIT-9008297144.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C02393-2EA8-4687-A6F6-7398E3DD88A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD06346-67CF-45D9-9243-14B7DD8FAC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7600AD21-58C6-4EBC-AB02-385F8631CDA3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{815E30F8-F8BF-4503-8688-F822FAFE1744}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,58 +71,52 @@
     <t>WILLINTON MACEA MERCADO</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1148948617</t>
+  </si>
+  <si>
+    <t>JOHAN ALFREDO ARIZA RAMIREZ</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1148948617</t>
-  </si>
-  <si>
-    <t>JOHAN ALFREDO ARIZA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1047460303</t>
-  </si>
-  <si>
-    <t>ROBIN ELIECER BANQUETT OROZCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +215,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +230,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +430,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +474,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAA4C74-AF0C-FF45-368C-1F75724189E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CF7AEA-CFEC-E15A-2D75-D9A52437021A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AE58C0-00A9-4EFD-A802-D6957E5B4684}">
-  <dimension ref="B2:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7419C-2EFF-45B9-AFDA-C2B4D4633B1D}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -899,7 +893,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -912,7 +906,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -957,7 +951,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -989,12 +983,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1651998</v>
+        <v>1101332</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,14 +999,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5">
         <v>14</v>
@@ -1042,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1065,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30666</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1079,13 +1073,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1108,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1125,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1171,13 +1165,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1200,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1217,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1246,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1263,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1292,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1309,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1338,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1355,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1378,16 +1372,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>30666</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1401,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1424,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1447,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1470,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1493,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1516,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1539,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1562,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1585,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1608,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1631,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1654,16 +1648,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>30666</v>
       </c>
       <c r="G42" s="18">
         <v>1000000</v>
@@ -1673,378 +1667,56 @@
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="17" t="s">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="18">
+      <c r="F43" s="24">
         <v>30666</v>
       </c>
-      <c r="G44" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G43" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="B48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G57" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="H62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="32" t="s">
+      <c r="B49" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="H63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
